--- a/Excel_Files/Data_from_statista.xlsx
+++ b/Excel_Files/Data_from_statista.xlsx
@@ -711,7 +711,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B101"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,7 +720,7 @@
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="64.5" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>926.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -744,7 +744,7 @@
         <v>777.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -752,7 +752,7 @@
         <v>766.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -760,7 +760,7 @@
         <v>750.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.25" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -776,7 +776,7 @@
         <v>499.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -784,7 +784,7 @@
         <v>491.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.75" thickBot="1">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.5" thickBot="1">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -800,7 +800,7 @@
         <v>387.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.25" thickBot="1">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -808,7 +808,7 @@
         <v>344.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.75" thickBot="1">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -816,7 +816,7 @@
         <v>341.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="57.75" thickBot="1">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -824,7 +824,7 @@
         <v>325.89999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="57.75" thickBot="1">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -840,7 +840,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" thickBot="1">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -856,7 +856,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29.25" thickBot="1">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -864,7 +864,7 @@
         <v>265.3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.75" thickBot="1">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -880,7 +880,7 @@
         <v>254.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.25" thickBot="1">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -888,7 +888,7 @@
         <v>248.1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29.25" thickBot="1">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -904,7 +904,7 @@
         <v>237.3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.5" thickBot="1">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -912,7 +912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.5" thickBot="1">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -920,7 +920,7 @@
         <v>221.3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29.25" thickBot="1">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -928,7 +928,7 @@
         <v>220.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29.25" thickBot="1">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -944,7 +944,7 @@
         <v>207.7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="57.75" thickBot="1">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -952,7 +952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="29.25" thickBot="1">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -960,7 +960,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29.25" thickBot="1">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -968,7 +968,7 @@
         <v>201.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="72" thickBot="1">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -976,7 +976,7 @@
         <v>200.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29.25" thickBot="1">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -984,7 +984,7 @@
         <v>200.7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.5" thickBot="1">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29.25" thickBot="1">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="29.25" thickBot="1">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>189.7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29.25" thickBot="1">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>185.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="57.75" thickBot="1">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>184.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="57.75" thickBot="1">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>184.3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="72" thickBot="1">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>184.1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="72" thickBot="1">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>181.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29.25" thickBot="1">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29.25" thickBot="1">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>160.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.5" thickBot="1">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29.25" thickBot="1">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29.25" thickBot="1">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29.25" thickBot="1">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29.25" thickBot="1">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>146.80000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="43.5" thickBot="1">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29.25" thickBot="1">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>138.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="29.25" thickBot="1">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>138.1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29.25" thickBot="1">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="29.25" thickBot="1">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>132.30000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="29.25" thickBot="1">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="57.75" thickBot="1">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="57.75" thickBot="1">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="72" thickBot="1">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="43.5" thickBot="1">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="43.5" thickBot="1">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="29.25" thickBot="1">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="72" thickBot="1">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29.25" thickBot="1">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="29.25" thickBot="1">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="57.75" thickBot="1">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="29.25" thickBot="1">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="57.75" thickBot="1">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="29.25" thickBot="1">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="43.5" thickBot="1">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.5" thickBot="1">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="43.5" thickBot="1">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="43.5" thickBot="1">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="29.25" thickBot="1">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="57.75" thickBot="1">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1">
       <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="43.5" thickBot="1">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="29.25" thickBot="1">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1">
       <c r="A89" s="4" t="s">
         <v>89</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="29.25" thickBot="1">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="57.75" thickBot="1">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="57.75" thickBot="1">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1">
       <c r="A93" s="4" t="s">
         <v>93</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="43.5" thickBot="1">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="29.25" thickBot="1">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="43.5" thickBot="1">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1">
       <c r="A97" s="4" t="s">
         <v>97</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="43.5" thickBot="1">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="72" thickBot="1">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1">
       <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="29.25" thickBot="1">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="43.5" thickBot="1">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1">
       <c r="A101" s="4" t="s">
         <v>101</v>
       </c>
